--- a/inst/templates/gateStrat.xlsx
+++ b/inst/templates/gateStrat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bernhard/Documents/RPS/flowdex_R/flowdex/inst/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100666B1-FE1F-304F-91FE-EEAF4D63E5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91ADD5B-FB58-1446-AE3C-980546ECE9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39580" yWindow="1560" windowWidth="18120" windowHeight="9980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>GateName</t>
   </si>
@@ -39,18 +39,6 @@
     <t>GateOnY</t>
   </si>
   <si>
-    <t>root</t>
-  </si>
-  <si>
-    <t>DNA+</t>
-  </si>
-  <si>
-    <t>FITC.A</t>
-  </si>
-  <si>
-    <t>PerCP.A</t>
-  </si>
-  <si>
     <t>Parent</t>
   </si>
   <si>
@@ -58,9 +46,6 @@
   </si>
   <si>
     <t>GateDefinition</t>
-  </si>
-  <si>
-    <t>BactStainV2b</t>
   </si>
   <si>
     <t>minRange</t>
@@ -393,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -410,7 +395,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -419,42 +404,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>1250</v>
-      </c>
-      <c r="H2">
-        <v>4000</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/inst/templates/gateStrat.xlsx
+++ b/inst/templates/gateStrat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bernhard/Documents/RPS/flowdex_R/flowdex/inst/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91ADD5B-FB58-1446-AE3C-980546ECE9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8D98B2-9467-7E4D-999B-1B0858A8FBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39580" yWindow="1560" windowWidth="18120" windowHeight="9980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39580" yWindow="1560" windowWidth="21780" windowHeight="10160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>GateName</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>maxRange</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>keepData</t>
   </si>
 </sst>
 </file>
@@ -378,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -390,7 +396,7 @@
     <col min="4" max="5" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,6 +420,14 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
